--- a/proyecto_final/Lectura Sensor/Tabla de Valores.xlsx
+++ b/proyecto_final/Lectura Sensor/Tabla de Valores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utpac-my.sharepoint.com/personal/armando_almengor_utp_ac_pa/Documents/Universidad/Trabajo de Graduación/Mecatrónica/Proyecto Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utpac-my.sharepoint.com/personal/armando_almengor_utp_ac_pa/Documents/Universidad/Trabajo de Graduación/Mecatrónica/Proyecto Final/Lectura Sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{2EEE4CDC-63EF-4E34-B2E4-20CC1611E3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5FA2560F-8EDD-44B4-A2F9-343CAFCD27B6}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{2EEE4CDC-63EF-4E34-B2E4-20CC1611E3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0740EFCC-701F-4C60-8FE2-71F693905644}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{52C5606A-8AC3-4B61-9351-7CD081ABF504}"/>
+    <workbookView xWindow="3720" yWindow="2124" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{52C5606A-8AC3-4B61-9351-7CD081ABF504}"/>
   </bookViews>
   <sheets>
     <sheet name="Alexander - Juan" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Valores reales" sheetId="6" r:id="rId4"/>
     <sheet name="Armando" sheetId="2" r:id="rId5"/>
-    <sheet name="Armando Valores reales" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="Armando Valores reales" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Blanco</t>
   </si>
@@ -95,6 +96,33 @@
   </si>
   <si>
     <t>TOMAR  ACCIONES DE CONTOL</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>vl</t>
+  </si>
+  <si>
+    <t>vr</t>
+  </si>
+  <si>
+    <t>intensidad</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -311,6 +339,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433278</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>424007</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE4B2AD-CBAC-4C1B-AFFA-711EFFE3B2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6004525" y="1015083"/>
+          <a:ext cx="3094321" cy="1819529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC5ED05-79E1-4828-93F4-48BD86A9FE9E}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -32447,6 +32524,87 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F55C6B-8660-48F2-AA7F-2395DA23B8BC}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>F2-E2</f>
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <f>G2*A2</f>
+        <v>165</v>
+      </c>
+      <c r="C2">
+        <f>H2-I2*B2</f>
+        <v>-12.014500000000002</v>
+      </c>
+      <c r="D2">
+        <f>H2+I2*B2</f>
+        <v>28.014500000000002</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0.12130000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B33E14E-88E4-47BB-B7C2-8829A612803F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
